--- a/CRMAutomationMaven/Test Data/Accounts.xlsx
+++ b/CRMAutomationMaven/Test Data/Accounts.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="37">
   <si>
     <t>TCID</t>
   </si>
@@ -126,6 +126,15 @@
   </si>
   <si>
     <t>Auto23012017121732</t>
+  </si>
+  <si>
+    <t>Auto28012017074317</t>
+  </si>
+  <si>
+    <t>Auto28012017074403</t>
+  </si>
+  <si>
+    <t>Auto28012017074452</t>
   </si>
 </sst>
 </file>
@@ -546,7 +555,7 @@
         <v>16</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>23</v>
@@ -578,7 +587,7 @@
         <v>17</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>25</v>
@@ -610,7 +619,7 @@
         <v>16</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>25</v>

--- a/CRMAutomationMaven/Test Data/Accounts.xlsx
+++ b/CRMAutomationMaven/Test Data/Accounts.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="61">
   <si>
     <t>TCID</t>
   </si>
@@ -135,6 +135,78 @@
   </si>
   <si>
     <t>Auto28012017074452</t>
+  </si>
+  <si>
+    <t>Auto28012017091804</t>
+  </si>
+  <si>
+    <t>Auto28012017091806</t>
+  </si>
+  <si>
+    <t>Auto28012017091807</t>
+  </si>
+  <si>
+    <t>Auto28012017094758</t>
+  </si>
+  <si>
+    <t>Auto28012017094812</t>
+  </si>
+  <si>
+    <t>Auto28012017094853</t>
+  </si>
+  <si>
+    <t>Auto28012017095955</t>
+  </si>
+  <si>
+    <t>Auto28012017095958</t>
+  </si>
+  <si>
+    <t>Auto28012017095959</t>
+  </si>
+  <si>
+    <t>Auto31012017125450</t>
+  </si>
+  <si>
+    <t>Auto31012017125454</t>
+  </si>
+  <si>
+    <t>Auto31012017125455</t>
+  </si>
+  <si>
+    <t>Auto31012017130730</t>
+  </si>
+  <si>
+    <t>Auto31012017130732</t>
+  </si>
+  <si>
+    <t>Auto31012017130733</t>
+  </si>
+  <si>
+    <t>Auto01022017122635</t>
+  </si>
+  <si>
+    <t>Auto01022017122639</t>
+  </si>
+  <si>
+    <t>Auto01022017124016</t>
+  </si>
+  <si>
+    <t>Auto01022017124018</t>
+  </si>
+  <si>
+    <t>Auto08022017065240</t>
+  </si>
+  <si>
+    <t>Auto08022017065245</t>
+  </si>
+  <si>
+    <t>Auto09022017122806</t>
+  </si>
+  <si>
+    <t>Auto09022017122810</t>
+  </si>
+  <si>
+    <t>Auto09022017122811</t>
   </si>
 </sst>
 </file>
@@ -555,7 +627,7 @@
         <v>16</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>34</v>
+        <v>58</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>23</v>
@@ -587,10 +659,10 @@
         <v>17</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>35</v>
+        <v>59</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>20</v>
@@ -619,10 +691,10 @@
         <v>16</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>20</v>

--- a/CRMAutomationMaven/Test Data/Accounts.xlsx
+++ b/CRMAutomationMaven/Test Data/Accounts.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="70">
   <si>
     <t>TCID</t>
   </si>
@@ -207,6 +207,33 @@
   </si>
   <si>
     <t>Auto09022017122811</t>
+  </si>
+  <si>
+    <t>Auto09022017131841</t>
+  </si>
+  <si>
+    <t>Auto09022017131843</t>
+  </si>
+  <si>
+    <t>Auto09022017131844</t>
+  </si>
+  <si>
+    <t>Auto09022017132226</t>
+  </si>
+  <si>
+    <t>Auto09022017132227</t>
+  </si>
+  <si>
+    <t>Auto09022017132228</t>
+  </si>
+  <si>
+    <t>Auto10022017073227</t>
+  </si>
+  <si>
+    <t>Auto10022017073242</t>
+  </si>
+  <si>
+    <t>Auto10022017073326</t>
   </si>
 </sst>
 </file>
@@ -627,7 +654,7 @@
         <v>16</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>23</v>
@@ -659,10 +686,10 @@
         <v>17</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>20</v>
@@ -691,10 +718,10 @@
         <v>16</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>20</v>

--- a/CRMAutomationMaven/Test Data/Accounts.xlsx
+++ b/CRMAutomationMaven/Test Data/Accounts.xlsx
@@ -1,21 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent>
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Selenium Programs\CRMAutomationMaven\Test Data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
+  <workbookPr/>
   <bookViews>
     <workbookView windowHeight="2925" windowWidth="12825" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet name="Accounts" r:id="rId1" sheetId="1"/>
   </sheets>
-  <calcPr calcId="0"/>
-  <extLst>
+  <calcPr calcId="124519"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
     <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
@@ -24,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
   <si>
     <t>TCID</t>
   </si>
@@ -92,156 +87,27 @@
     <t>Password11</t>
   </si>
   <si>
-    <t>Auto12012017135448</t>
+    <t>Auto10022017111715</t>
   </si>
   <si>
     <t>Fail</t>
   </si>
   <si>
-    <t>Auto12012017135504</t>
+    <t>Auto10022017111743</t>
   </si>
   <si>
     <t>Pass</t>
   </si>
   <si>
-    <t>Auto12012017135557</t>
-  </si>
-  <si>
-    <t>Auto23012017111348</t>
-  </si>
-  <si>
-    <t>Auto23012017115530</t>
-  </si>
-  <si>
-    <t>Auto23012017115606</t>
-  </si>
-  <si>
-    <t>Auto23012017115618</t>
-  </si>
-  <si>
-    <t>Auto23012017121631</t>
-  </si>
-  <si>
-    <t>Auto23012017121643</t>
-  </si>
-  <si>
-    <t>Auto23012017121732</t>
-  </si>
-  <si>
-    <t>Auto28012017074317</t>
-  </si>
-  <si>
-    <t>Auto28012017074403</t>
-  </si>
-  <si>
-    <t>Auto28012017074452</t>
-  </si>
-  <si>
-    <t>Auto28012017091804</t>
-  </si>
-  <si>
-    <t>Auto28012017091806</t>
-  </si>
-  <si>
-    <t>Auto28012017091807</t>
-  </si>
-  <si>
-    <t>Auto28012017094758</t>
-  </si>
-  <si>
-    <t>Auto28012017094812</t>
-  </si>
-  <si>
-    <t>Auto28012017094853</t>
-  </si>
-  <si>
-    <t>Auto28012017095955</t>
-  </si>
-  <si>
-    <t>Auto28012017095958</t>
-  </si>
-  <si>
-    <t>Auto28012017095959</t>
-  </si>
-  <si>
-    <t>Auto31012017125450</t>
-  </si>
-  <si>
-    <t>Auto31012017125454</t>
-  </si>
-  <si>
-    <t>Auto31012017125455</t>
-  </si>
-  <si>
-    <t>Auto31012017130730</t>
-  </si>
-  <si>
-    <t>Auto31012017130732</t>
-  </si>
-  <si>
-    <t>Auto31012017130733</t>
-  </si>
-  <si>
-    <t>Auto01022017122635</t>
-  </si>
-  <si>
-    <t>Auto01022017122639</t>
-  </si>
-  <si>
-    <t>Auto01022017124016</t>
-  </si>
-  <si>
-    <t>Auto01022017124018</t>
-  </si>
-  <si>
-    <t>Auto08022017065240</t>
-  </si>
-  <si>
-    <t>Auto08022017065245</t>
-  </si>
-  <si>
-    <t>Auto09022017122806</t>
-  </si>
-  <si>
-    <t>Auto09022017122810</t>
-  </si>
-  <si>
-    <t>Auto09022017122811</t>
-  </si>
-  <si>
-    <t>Auto09022017131841</t>
-  </si>
-  <si>
-    <t>Auto09022017131843</t>
-  </si>
-  <si>
-    <t>Auto09022017131844</t>
-  </si>
-  <si>
-    <t>Auto09022017132226</t>
-  </si>
-  <si>
-    <t>Auto09022017132227</t>
-  </si>
-  <si>
-    <t>Auto09022017132228</t>
-  </si>
-  <si>
-    <t>Auto10022017073227</t>
-  </si>
-  <si>
-    <t>Auto10022017073242</t>
-  </si>
-  <si>
-    <t>Auto10022017073326</t>
+    <t>Auto10022017111847</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -364,7 +230,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -399,7 +265,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -583,14 +449,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G2" sqref="G2:H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" bestFit="true" customWidth="true" width="8.42578125" collapsed="true"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="8.0" collapsed="true"/>
@@ -602,7 +468,7 @@
     <col min="10" max="10" bestFit="true" customWidth="true" width="11.42578125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -634,7 +500,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
@@ -654,7 +520,7 @@
         <v>16</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>67</v>
+        <v>22</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>23</v>
@@ -666,7 +532,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
@@ -686,7 +552,7 @@
         <v>17</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>68</v>
+        <v>24</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>25</v>
@@ -698,7 +564,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
@@ -718,7 +584,7 @@
         <v>16</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>69</v>
+        <v>26</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>25</v>

--- a/CRMAutomationMaven/Test Data/Accounts.xlsx
+++ b/CRMAutomationMaven/Test Data/Accounts.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="36">
   <si>
     <t>TCID</t>
   </si>
@@ -100,6 +100,33 @@
   </si>
   <si>
     <t>Auto10022017111847</t>
+  </si>
+  <si>
+    <t>Auto03032017115221</t>
+  </si>
+  <si>
+    <t>Auto03032017115251</t>
+  </si>
+  <si>
+    <t>Auto03032017115339</t>
+  </si>
+  <si>
+    <t>Auto03032017122218</t>
+  </si>
+  <si>
+    <t>Auto03032017122240</t>
+  </si>
+  <si>
+    <t>Auto03032017122301</t>
+  </si>
+  <si>
+    <t>Auto03032017125950</t>
+  </si>
+  <si>
+    <t>Auto03032017130003</t>
+  </si>
+  <si>
+    <t>Auto03032017130057</t>
   </si>
 </sst>
 </file>
@@ -520,7 +547,7 @@
         <v>16</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>23</v>
@@ -552,7 +579,7 @@
         <v>17</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>25</v>
@@ -584,7 +611,7 @@
         <v>16</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>25</v>
